--- a/biology/Zoologie/Colibri_de_Mitchell/Colibri_de_Mitchell.xlsx
+++ b/biology/Zoologie/Colibri_de_Mitchell/Colibri_de_Mitchell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodice mitchellii
-Le Colibri de Mitchell (Philodice mitchellii) est une espèce de colibris[1].
+Le Colibri de Mitchell (Philodice mitchellii) est une espèce de colibris.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il atteint 8 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il atteint 8 cm.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes. Cet oiseau se trouve aussi sur les sites d'anciennes forêts lourdement dégradées.
 </t>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Colombie, Équateur et Panama[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Colombie, Équateur et Panama
 </t>
         </is>
       </c>
